--- a/Unit 9/Unit 9 Examples - Workbooks-20231019/Exa 9.3B.xlsx
+++ b/Unit 9/Unit 9 Examples - Workbooks-20231019/Exa 9.3B.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Indra Dewaji\Documents\GitHub\researchmethodology\Unit 9\Unit 9 Examples - Workbooks-20231019\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF1CD9B-93A8-4856-9783-B11ACFEEDDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="15225" windowHeight="12870"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diets" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -72,11 +91,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -90,6 +109,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -123,12 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
@@ -150,19 +170,28 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +229,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -234,6 +263,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -268,9 +298,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -443,18 +474,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -476,7 +509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -506,7 +539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -521,7 +554,7 @@
         <v>5.3411999999999988</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -536,7 +569,7 @@
         <v>2.5356026132351492</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -547,7 +580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -557,8 +590,12 @@
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="F7" s="10">
+        <f>MIN(B2:B51)</f>
+        <v>-1.7150000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -568,8 +605,12 @@
       <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="F8" s="10">
+        <f>MAX(B2:B51)</f>
+        <v>10.061999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -580,7 +621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -588,7 +629,7 @@
         <v>7.52</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -596,7 +637,7 @@
         <v>6.8810000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -604,7 +645,7 @@
         <v>7.2649999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -612,7 +653,7 @@
         <v>3.4769999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -620,7 +661,7 @@
         <v>3.7549999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -628,7 +669,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -643,7 +684,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -658,7 +699,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -673,7 +714,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -688,7 +729,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -703,7 +744,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -718,7 +759,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -733,7 +774,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -748,7 +789,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -763,7 +804,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -778,7 +819,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -793,7 +834,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
@@ -808,7 +849,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -823,7 +864,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
@@ -838,7 +879,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
@@ -853,7 +894,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -868,7 +909,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
@@ -883,7 +924,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>2</v>
       </c>
@@ -891,7 +932,7 @@
         <v>5.0330000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
@@ -899,7 +940,7 @@
         <v>5.569</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>2</v>
       </c>
@@ -907,7 +948,7 @@
         <v>6.7119999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
@@ -915,7 +956,7 @@
         <v>3.6629999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
@@ -923,7 +964,7 @@
         <v>2.7410000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -931,7 +972,7 @@
         <v>6.2560000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -939,7 +980,7 @@
         <v>5.3490000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -947,7 +988,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -955,7 +996,7 @@
         <v>5.4450000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
@@ -963,7 +1004,7 @@
         <v>4.97</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
@@ -971,7 +1012,7 @@
         <v>3.613</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>2</v>
       </c>
@@ -979,7 +1020,7 @@
         <v>7.5679999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>2</v>
       </c>
@@ -987,7 +1028,7 @@
         <v>5.8609999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
@@ -995,7 +1036,7 @@
         <v>4.157</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>2</v>
       </c>
@@ -1003,7 +1044,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
@@ -1011,7 +1052,7 @@
         <v>4.4409999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
@@ -1019,7 +1060,7 @@
         <v>5.875</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
@@ -1027,7 +1068,7 @@
         <v>5.7149999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
@@ -1035,7 +1076,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>3</v>
       </c>
@@ -1043,7 +1084,7 @@
         <v>-1.087</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>3</v>
       </c>
@@ -1051,7 +1092,7 @@
         <v>1.819</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
@@ -1059,7 +1100,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>3</v>
       </c>
@@ -1067,7 +1108,7 @@
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>3</v>
       </c>
@@ -1075,7 +1116,7 @@
         <v>1.889</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>3</v>
       </c>
@@ -1083,7 +1124,7 @@
         <v>3.089</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
@@ -1091,7 +1132,7 @@
         <v>4.008</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>3</v>
       </c>
@@ -1099,7 +1140,7 @@
         <v>4.5510000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>3</v>
       </c>
@@ -1107,7 +1148,7 @@
         <v>1.3720000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>3</v>
       </c>
@@ -1115,7 +1156,7 @@
         <v>3.4129999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>3</v>
       </c>
@@ -1123,7 +1164,7 @@
         <v>-4.1479999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>3</v>
       </c>
@@ -1131,7 +1172,7 @@
         <v>2.823</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>3</v>
       </c>
@@ -1139,7 +1180,7 @@
         <v>2.8650000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>3</v>
       </c>
@@ -1147,7 +1188,7 @@
         <v>4.3689999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>3</v>
       </c>
@@ -1155,7 +1196,7 @@
         <v>6.3369999999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>3</v>
       </c>
@@ -1163,7 +1204,7 @@
         <v>6.3079999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
@@ -1171,7 +1212,7 @@
         <v>3.4940000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>3</v>
       </c>
@@ -1179,7 +1220,7 @@
         <v>10.539</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>3</v>
       </c>
@@ -1187,7 +1228,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>3</v>
       </c>
@@ -1195,7 +1236,7 @@
         <v>5.1230000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>3</v>
       </c>
@@ -1203,7 +1244,7 @@
         <v>5.4850000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>3</v>
       </c>
@@ -1211,7 +1252,7 @@
         <v>-1.8939999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>3</v>
       </c>
@@ -1219,7 +1260,7 @@
         <v>8.016</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>3</v>
       </c>
@@ -1227,7 +1268,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>3</v>
       </c>
@@ -1235,7 +1276,7 @@
         <v>3.8820000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
@@ -1243,7 +1284,7 @@
         <v>7.03</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>3</v>
       </c>
@@ -1251,7 +1292,7 @@
         <v>7.7270000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>3</v>
       </c>
@@ -1259,7 +1300,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>3</v>
       </c>
@@ -1267,7 +1308,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>3</v>
       </c>
@@ -1275,7 +1316,7 @@
         <v>4.5469999999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>3</v>
       </c>
@@ -1283,7 +1324,7 @@
         <v>4.9850000000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>3</v>
       </c>
@@ -1291,7 +1332,7 @@
         <v>5.1589999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>3</v>
       </c>
@@ -1299,7 +1340,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>3</v>
       </c>
@@ -1307,7 +1348,7 @@
         <v>4.9340000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
@@ -1315,7 +1356,7 @@
         <v>3.1059999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>3</v>
       </c>
@@ -1323,7 +1364,7 @@
         <v>5.5979999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>3</v>
       </c>
@@ -1331,7 +1372,7 @@
         <v>2.1619999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>3</v>
       </c>
@@ -1339,7 +1380,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>3</v>
       </c>
@@ -1347,7 +1388,7 @@
         <v>7.0460000000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>3</v>
       </c>
@@ -1355,7 +1396,7 @@
         <v>1.7569999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>3</v>
       </c>
@@ -1363,7 +1404,7 @@
         <v>1.8480000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>3</v>
       </c>
@@ -1371,7 +1412,7 @@
         <v>1.0960000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>3</v>
       </c>
@@ -1379,7 +1420,7 @@
         <v>2.145</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
@@ -1387,7 +1428,7 @@
         <v>8.4350000000000005</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>3</v>
       </c>
@@ -1395,7 +1436,7 @@
         <v>6.0990000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>3</v>
       </c>
@@ -1403,7 +1444,7 @@
         <v>3.972</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>3</v>
       </c>
@@ -1411,7 +1452,7 @@
         <v>2.4089999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>3</v>
       </c>
@@ -1419,7 +1460,7 @@
         <v>0.56899999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>3</v>
       </c>
@@ -1427,7 +1468,7 @@
         <v>7.0129999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>3</v>
       </c>
@@ -1444,12 +1485,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1458,12 +1499,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
